--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Slpi-Plscr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Slpi-Plscr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Plscr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.030334333333333</v>
+        <v>0.2560143333333333</v>
       </c>
       <c r="H2">
-        <v>3.091003</v>
+        <v>0.768043</v>
       </c>
       <c r="I2">
-        <v>0.01303805003366037</v>
+        <v>0.002869964077497532</v>
       </c>
       <c r="J2">
-        <v>0.01303805003366037</v>
+        <v>0.002869964077497532</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.359326333333333</v>
+        <v>5.171875333333333</v>
       </c>
       <c r="N2">
-        <v>13.077979</v>
+        <v>15.515626</v>
       </c>
       <c r="O2">
-        <v>0.1512713557777758</v>
+        <v>0.1551432543409886</v>
       </c>
       <c r="P2">
-        <v>0.1512713557777758</v>
+        <v>0.1551432543409886</v>
       </c>
       <c r="Q2">
-        <v>4.491563591437444</v>
+        <v>1.324074215546444</v>
       </c>
       <c r="R2">
-        <v>40.424072322937</v>
+        <v>11.916667939918</v>
       </c>
       <c r="S2">
-        <v>0.001972283505290279</v>
+        <v>0.0004452555668247003</v>
       </c>
       <c r="T2">
-        <v>0.001972283505290279</v>
+        <v>0.0004452555668247003</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.030334333333333</v>
+        <v>0.2560143333333333</v>
       </c>
       <c r="H3">
-        <v>3.091003</v>
+        <v>0.768043</v>
       </c>
       <c r="I3">
-        <v>0.01303805003366037</v>
+        <v>0.002869964077497532</v>
       </c>
       <c r="J3">
-        <v>0.01303805003366037</v>
+        <v>0.002869964077497532</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>18.970319</v>
       </c>
       <c r="O3">
-        <v>0.2194273193638635</v>
+        <v>0.1896872885146038</v>
       </c>
       <c r="P3">
-        <v>0.2194273193638634</v>
+        <v>0.1896872885146038</v>
       </c>
       <c r="Q3">
-        <v>6.515256993328556</v>
+        <v>1.618891190635222</v>
       </c>
       <c r="R3">
-        <v>58.63731293995701</v>
+        <v>14.570020715717</v>
       </c>
       <c r="S3">
-        <v>0.002860904368618025</v>
+        <v>0.0005443957039948232</v>
       </c>
       <c r="T3">
-        <v>0.002860904368618024</v>
+        <v>0.0005443957039948232</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.030334333333333</v>
+        <v>0.2560143333333333</v>
       </c>
       <c r="H4">
-        <v>3.091003</v>
+        <v>0.768043</v>
       </c>
       <c r="I4">
-        <v>0.01303805003366037</v>
+        <v>0.002869964077497532</v>
       </c>
       <c r="J4">
-        <v>0.01303805003366037</v>
+        <v>0.002869964077497532</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.159533666666667</v>
+        <v>3.409029666666667</v>
       </c>
       <c r="N4">
-        <v>9.478601000000001</v>
+        <v>10.227089</v>
       </c>
       <c r="O4">
-        <v>0.1096377983285171</v>
+        <v>0.1022623173499366</v>
       </c>
       <c r="P4">
-        <v>0.1096377983285171</v>
+        <v>0.1022623173499366</v>
       </c>
       <c r="Q4">
-        <v>3.255376014089223</v>
+        <v>0.8727604574252222</v>
       </c>
       <c r="R4">
-        <v>29.298384126803</v>
+        <v>7.854844116827</v>
       </c>
       <c r="S4">
-        <v>0.001429463100187571</v>
+        <v>0.0002934891772759706</v>
       </c>
       <c r="T4">
-        <v>0.001429463100187571</v>
+        <v>0.0002934891772759705</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.030334333333333</v>
+        <v>0.2560143333333333</v>
       </c>
       <c r="H5">
-        <v>3.091003</v>
+        <v>0.768043</v>
       </c>
       <c r="I5">
-        <v>0.01303805003366037</v>
+        <v>0.002869964077497532</v>
       </c>
       <c r="J5">
-        <v>0.01303805003366037</v>
+        <v>0.002869964077497532</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.103573333333333</v>
+        <v>1.539289666666667</v>
       </c>
       <c r="N5">
-        <v>3.31072</v>
+        <v>4.617869</v>
       </c>
       <c r="O5">
-        <v>0.03829468628146581</v>
+        <v>0.04617481916490941</v>
       </c>
       <c r="P5">
-        <v>0.0382946862814658</v>
+        <v>0.0461748191649094</v>
       </c>
       <c r="Q5">
-        <v>1.137049494684444</v>
+        <v>0.3940802178185556</v>
       </c>
       <c r="R5">
-        <v>10.23344545216</v>
+        <v>3.546721960367</v>
       </c>
       <c r="S5">
-        <v>0.0004992880357610785</v>
+        <v>0.0001325200722882346</v>
       </c>
       <c r="T5">
-        <v>0.0004992880357610784</v>
+        <v>0.0001325200722882346</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.030334333333333</v>
+        <v>0.2560143333333333</v>
       </c>
       <c r="H6">
-        <v>3.091003</v>
+        <v>0.768043</v>
       </c>
       <c r="I6">
-        <v>0.01303805003366037</v>
+        <v>0.002869964077497532</v>
       </c>
       <c r="J6">
-        <v>0.01303805003366037</v>
+        <v>0.002869964077497532</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.881924</v>
+        <v>12.61940066666667</v>
       </c>
       <c r="N6">
-        <v>26.645772</v>
+        <v>37.858202</v>
       </c>
       <c r="O6">
-        <v>0.3082083291451605</v>
+        <v>0.3785502861295138</v>
       </c>
       <c r="P6">
-        <v>0.3082083291451604</v>
+        <v>0.3785502861295137</v>
       </c>
       <c r="Q6">
-        <v>9.151351243257334</v>
+        <v>3.230747448742889</v>
       </c>
       <c r="R6">
-        <v>82.36216118931601</v>
+        <v>29.076727038686</v>
       </c>
       <c r="S6">
-        <v>0.004018435616185465</v>
+        <v>0.001086425722718117</v>
       </c>
       <c r="T6">
-        <v>0.004018435616185465</v>
+        <v>0.001086425722718117</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.030334333333333</v>
+        <v>0.2560143333333333</v>
       </c>
       <c r="H7">
-        <v>3.091003</v>
+        <v>0.768043</v>
       </c>
       <c r="I7">
-        <v>0.01303805003366037</v>
+        <v>0.002869964077497532</v>
       </c>
       <c r="J7">
-        <v>0.01303805003366037</v>
+        <v>0.002869964077497532</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.990126333333333</v>
+        <v>4.273092666666666</v>
       </c>
       <c r="N7">
-        <v>14.970379</v>
+        <v>12.819278</v>
       </c>
       <c r="O7">
-        <v>0.1731605111032174</v>
+        <v>0.1281820345000479</v>
       </c>
       <c r="P7">
-        <v>0.1731605111032173</v>
+        <v>0.1281820345000479</v>
       </c>
       <c r="Q7">
-        <v>5.141498488904112</v>
+        <v>1.093972970328222</v>
       </c>
       <c r="R7">
-        <v>46.273486400137</v>
+        <v>9.845756732953999</v>
       </c>
       <c r="S7">
-        <v>0.00225767540761795</v>
+        <v>0.0003678778343956867</v>
       </c>
       <c r="T7">
-        <v>0.00225767540761795</v>
+        <v>0.0003678778343956867</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>5.860602999999998</v>
+        <v>1.030334333333333</v>
       </c>
       <c r="H8">
-        <v>17.581809</v>
+        <v>3.091003</v>
       </c>
       <c r="I8">
-        <v>0.07416120444537261</v>
+        <v>0.01155022254409858</v>
       </c>
       <c r="J8">
-        <v>0.07416120444537262</v>
+        <v>0.01155022254409858</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.359326333333333</v>
+        <v>5.171875333333333</v>
       </c>
       <c r="N8">
-        <v>13.077979</v>
+        <v>15.515626</v>
       </c>
       <c r="O8">
-        <v>0.1512713557777758</v>
+        <v>0.1551432543409886</v>
       </c>
       <c r="P8">
-        <v>0.1512713557777758</v>
+        <v>0.1551432543409886</v>
       </c>
       <c r="Q8">
-        <v>25.54828098711232</v>
+        <v>5.328760723653112</v>
       </c>
       <c r="R8">
-        <v>229.9345288840109</v>
+        <v>47.958846512878</v>
       </c>
       <c r="S8">
-        <v>0.01121846594256433</v>
+        <v>0.001791939113854106</v>
       </c>
       <c r="T8">
-        <v>0.01121846594256433</v>
+        <v>0.001791939113854106</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>5.860602999999998</v>
+        <v>1.030334333333333</v>
       </c>
       <c r="H9">
-        <v>17.581809</v>
+        <v>3.091003</v>
       </c>
       <c r="I9">
-        <v>0.07416120444537261</v>
+        <v>0.01155022254409858</v>
       </c>
       <c r="J9">
-        <v>0.07416120444537262</v>
+        <v>0.01155022254409858</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>18.970319</v>
       </c>
       <c r="O9">
-        <v>0.2194273193638635</v>
+        <v>0.1896872885146038</v>
       </c>
       <c r="P9">
-        <v>0.2194273193638634</v>
+        <v>0.1896872885146038</v>
       </c>
       <c r="Q9">
-        <v>37.05916948078566</v>
+        <v>6.515256993328556</v>
       </c>
       <c r="R9">
-        <v>333.5325253270709</v>
+        <v>58.63731293995701</v>
       </c>
       <c r="S9">
-        <v>0.01627299429224355</v>
+        <v>0.002190930396130308</v>
       </c>
       <c r="T9">
-        <v>0.01627299429224354</v>
+        <v>0.002190930396130308</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>5.860602999999998</v>
+        <v>1.030334333333333</v>
       </c>
       <c r="H10">
-        <v>17.581809</v>
+        <v>3.091003</v>
       </c>
       <c r="I10">
-        <v>0.07416120444537261</v>
+        <v>0.01155022254409858</v>
       </c>
       <c r="J10">
-        <v>0.07416120444537262</v>
+        <v>0.01155022254409858</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.159533666666667</v>
+        <v>3.409029666666667</v>
       </c>
       <c r="N10">
-        <v>9.478601000000001</v>
+        <v>10.227089</v>
       </c>
       <c r="O10">
-        <v>0.1096377983285171</v>
+        <v>0.1022623173499366</v>
       </c>
       <c r="P10">
-        <v>0.1096377983285171</v>
+        <v>0.1022623173499366</v>
       </c>
       <c r="Q10">
-        <v>18.51677248546766</v>
+        <v>3.512440308918556</v>
       </c>
       <c r="R10">
-        <v>166.650952369209</v>
+        <v>31.611962780267</v>
       </c>
       <c r="S10">
-        <v>0.008130871176781688</v>
+        <v>0.001181152523267</v>
       </c>
       <c r="T10">
-        <v>0.008130871176781688</v>
+        <v>0.001181152523267</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>5.860602999999998</v>
+        <v>1.030334333333333</v>
       </c>
       <c r="H11">
-        <v>17.581809</v>
+        <v>3.091003</v>
       </c>
       <c r="I11">
-        <v>0.07416120444537261</v>
+        <v>0.01155022254409858</v>
       </c>
       <c r="J11">
-        <v>0.07416120444537262</v>
+        <v>0.01155022254409858</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.103573333333333</v>
+        <v>1.539289666666667</v>
       </c>
       <c r="N11">
-        <v>3.31072</v>
+        <v>4.617869</v>
       </c>
       <c r="O11">
-        <v>0.03829468628146581</v>
+        <v>0.04617481916490941</v>
       </c>
       <c r="P11">
-        <v>0.0382946862814658</v>
+        <v>0.0461748191649094</v>
       </c>
       <c r="Q11">
-        <v>6.467605188053332</v>
+        <v>1.585982992511889</v>
       </c>
       <c r="R11">
-        <v>58.20844669247999</v>
+        <v>14.273846932607</v>
       </c>
       <c r="S11">
-        <v>0.002839980058491192</v>
+        <v>0.0005333294372882117</v>
       </c>
       <c r="T11">
-        <v>0.002839980058491191</v>
+        <v>0.0005333294372882116</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>5.860602999999998</v>
+        <v>1.030334333333333</v>
       </c>
       <c r="H12">
-        <v>17.581809</v>
+        <v>3.091003</v>
       </c>
       <c r="I12">
-        <v>0.07416120444537261</v>
+        <v>0.01155022254409858</v>
       </c>
       <c r="J12">
-        <v>0.07416120444537262</v>
+        <v>0.01155022254409858</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.881924</v>
+        <v>12.61940066666667</v>
       </c>
       <c r="N12">
-        <v>26.645772</v>
+        <v>37.858202</v>
       </c>
       <c r="O12">
-        <v>0.3082083291451605</v>
+        <v>0.3785502861295138</v>
       </c>
       <c r="P12">
-        <v>0.3082083291451604</v>
+        <v>0.3785502861295137</v>
       </c>
       <c r="Q12">
-        <v>52.05343044017199</v>
+        <v>13.00220177295622</v>
       </c>
       <c r="R12">
-        <v>468.4808739615479</v>
+        <v>117.019815956606</v>
       </c>
       <c r="S12">
-        <v>0.02285710090950094</v>
+        <v>0.004372340048928077</v>
       </c>
       <c r="T12">
-        <v>0.02285710090950094</v>
+        <v>0.004372340048928077</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>5.860602999999998</v>
+        <v>1.030334333333333</v>
       </c>
       <c r="H13">
-        <v>17.581809</v>
+        <v>3.091003</v>
       </c>
       <c r="I13">
-        <v>0.07416120444537261</v>
+        <v>0.01155022254409858</v>
       </c>
       <c r="J13">
-        <v>0.07416120444537262</v>
+        <v>0.01155022254409858</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.990126333333333</v>
+        <v>4.273092666666666</v>
       </c>
       <c r="N13">
-        <v>14.970379</v>
+        <v>12.819278</v>
       </c>
       <c r="O13">
-        <v>0.1731605111032174</v>
+        <v>0.1281820345000479</v>
       </c>
       <c r="P13">
-        <v>0.1731605111032173</v>
+        <v>0.1281820345000479</v>
       </c>
       <c r="Q13">
-        <v>29.24514935951233</v>
+        <v>4.402714083981556</v>
       </c>
       <c r="R13">
-        <v>263.206344235611</v>
+        <v>39.624426755834</v>
       </c>
       <c r="S13">
-        <v>0.01284179206579092</v>
+        <v>0.001480531024630875</v>
       </c>
       <c r="T13">
-        <v>0.01284179206579092</v>
+        <v>0.001480531024630875</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.078843</v>
+        <v>12.30102133333333</v>
       </c>
       <c r="H14">
-        <v>0.236529</v>
+        <v>36.903064</v>
       </c>
       <c r="I14">
-        <v>0.000997694578883182</v>
+        <v>0.1378965344773566</v>
       </c>
       <c r="J14">
-        <v>0.0009976945788831822</v>
+        <v>0.1378965344773566</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.359326333333333</v>
+        <v>5.171875333333333</v>
       </c>
       <c r="N14">
-        <v>13.077979</v>
+        <v>15.515626</v>
       </c>
       <c r="O14">
-        <v>0.1512713557777758</v>
+        <v>0.1551432543409886</v>
       </c>
       <c r="P14">
-        <v>0.1512713557777758</v>
+        <v>0.1551432543409886</v>
       </c>
       <c r="Q14">
-        <v>0.343702366099</v>
+        <v>63.61934880867378</v>
       </c>
       <c r="R14">
-        <v>3.093321294891</v>
+        <v>572.5741392780641</v>
       </c>
       <c r="S14">
-        <v>0.000150922611599796</v>
+        <v>0.02139371712116143</v>
       </c>
       <c r="T14">
-        <v>0.000150922611599796</v>
+        <v>0.02139371712116144</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.078843</v>
+        <v>12.30102133333333</v>
       </c>
       <c r="H15">
-        <v>0.236529</v>
+        <v>36.903064</v>
       </c>
       <c r="I15">
-        <v>0.000997694578883182</v>
+        <v>0.1378965344773566</v>
       </c>
       <c r="J15">
-        <v>0.0009976945788831822</v>
+        <v>0.1378965344773566</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>18.970319</v>
       </c>
       <c r="O15">
-        <v>0.2194273193638635</v>
+        <v>0.1896872885146038</v>
       </c>
       <c r="P15">
-        <v>0.2194273193638634</v>
+        <v>0.1896872885146038</v>
       </c>
       <c r="Q15">
-        <v>0.4985589536389999</v>
+        <v>77.78476623971288</v>
       </c>
       <c r="R15">
-        <v>4.487030582751</v>
+        <v>700.062896157416</v>
       </c>
       <c r="S15">
-        <v>0.0002189214469881953</v>
+        <v>0.02615721972057035</v>
       </c>
       <c r="T15">
-        <v>0.0002189214469881953</v>
+        <v>0.02615721972057036</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.078843</v>
+        <v>12.30102133333333</v>
       </c>
       <c r="H16">
-        <v>0.236529</v>
+        <v>36.903064</v>
       </c>
       <c r="I16">
-        <v>0.000997694578883182</v>
+        <v>0.1378965344773566</v>
       </c>
       <c r="J16">
-        <v>0.0009976945788831822</v>
+        <v>0.1378965344773566</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.159533666666667</v>
+        <v>3.409029666666667</v>
       </c>
       <c r="N16">
-        <v>9.478601000000001</v>
+        <v>10.227089</v>
       </c>
       <c r="O16">
-        <v>0.1096377983285171</v>
+        <v>0.1022623173499366</v>
       </c>
       <c r="P16">
-        <v>0.1096377983285171</v>
+        <v>0.1022623173499366</v>
       </c>
       <c r="Q16">
-        <v>0.249107112881</v>
+        <v>41.93454665563289</v>
       </c>
       <c r="R16">
-        <v>2.241964015929</v>
+        <v>377.410919900696</v>
       </c>
       <c r="S16">
-        <v>0.0001093850370330491</v>
+        <v>0.01410161917017991</v>
       </c>
       <c r="T16">
-        <v>0.0001093850370330491</v>
+        <v>0.01410161917017991</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.078843</v>
+        <v>12.30102133333333</v>
       </c>
       <c r="H17">
-        <v>0.236529</v>
+        <v>36.903064</v>
       </c>
       <c r="I17">
-        <v>0.000997694578883182</v>
+        <v>0.1378965344773566</v>
       </c>
       <c r="J17">
-        <v>0.0009976945788831822</v>
+        <v>0.1378965344773566</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.103573333333333</v>
+        <v>1.539289666666667</v>
       </c>
       <c r="N17">
-        <v>3.31072</v>
+        <v>4.617869</v>
       </c>
       <c r="O17">
-        <v>0.03829468628146581</v>
+        <v>0.04617481916490941</v>
       </c>
       <c r="P17">
-        <v>0.0382946862814658</v>
+        <v>0.0461748191649094</v>
       </c>
       <c r="Q17">
-        <v>0.08700903232</v>
+        <v>18.93483502784622</v>
       </c>
       <c r="R17">
-        <v>0.7830812908799999</v>
+        <v>170.413515250616</v>
       </c>
       <c r="S17">
-        <v>3.82064009030506E-05</v>
+        <v>0.006367347542959635</v>
       </c>
       <c r="T17">
-        <v>3.820640090305059E-05</v>
+        <v>0.006367347542959635</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.078843</v>
+        <v>12.30102133333333</v>
       </c>
       <c r="H18">
-        <v>0.236529</v>
+        <v>36.903064</v>
       </c>
       <c r="I18">
-        <v>0.000997694578883182</v>
+        <v>0.1378965344773566</v>
       </c>
       <c r="J18">
-        <v>0.0009976945788831822</v>
+        <v>0.1378965344773566</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.881924</v>
+        <v>12.61940066666667</v>
       </c>
       <c r="N18">
-        <v>26.645772</v>
+        <v>37.858202</v>
       </c>
       <c r="O18">
-        <v>0.3082083291451605</v>
+        <v>0.3785502861295138</v>
       </c>
       <c r="P18">
-        <v>0.3082083291451604</v>
+        <v>0.3785502861295137</v>
       </c>
       <c r="Q18">
-        <v>0.700277533932</v>
+        <v>155.2315168145475</v>
       </c>
       <c r="R18">
-        <v>6.302497805388</v>
+        <v>1397.083651330928</v>
       </c>
       <c r="S18">
-        <v>0.0003074977791547701</v>
+        <v>0.05220077258267169</v>
       </c>
       <c r="T18">
-        <v>0.00030749777915477</v>
+        <v>0.0522007725826717</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.078843</v>
+        <v>12.30102133333333</v>
       </c>
       <c r="H19">
-        <v>0.236529</v>
+        <v>36.903064</v>
       </c>
       <c r="I19">
-        <v>0.000997694578883182</v>
+        <v>0.1378965344773566</v>
       </c>
       <c r="J19">
-        <v>0.0009976945788831822</v>
+        <v>0.1378965344773566</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.990126333333333</v>
+        <v>4.273092666666666</v>
       </c>
       <c r="N19">
-        <v>14.970379</v>
+        <v>12.819278</v>
       </c>
       <c r="O19">
-        <v>0.1731605111032174</v>
+        <v>0.1281820345000479</v>
       </c>
       <c r="P19">
-        <v>0.1731605111032173</v>
+        <v>0.1281820345000479</v>
       </c>
       <c r="Q19">
-        <v>0.393436530499</v>
+        <v>52.56340405197688</v>
       </c>
       <c r="R19">
-        <v>3.540928774491</v>
+        <v>473.070636467792</v>
       </c>
       <c r="S19">
-        <v>0.000172761303204321</v>
+        <v>0.01767585833981356</v>
       </c>
       <c r="T19">
-        <v>0.000172761303204321</v>
+        <v>0.01767585833981356</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,13 +1644,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>70.93018333333333</v>
+        <v>0.2857296666666667</v>
       </c>
       <c r="H20">
-        <v>212.79055</v>
+        <v>0.857189</v>
       </c>
       <c r="I20">
-        <v>0.897564265576613</v>
+        <v>0.003203078001656198</v>
       </c>
       <c r="J20">
-        <v>0.8975642655766132</v>
+        <v>0.003203078001656198</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.359326333333333</v>
+        <v>5.171875333333333</v>
       </c>
       <c r="N20">
-        <v>13.077979</v>
+        <v>15.515626</v>
       </c>
       <c r="O20">
-        <v>0.1512713557777758</v>
+        <v>0.1551432543409886</v>
       </c>
       <c r="P20">
-        <v>0.1512713557777758</v>
+        <v>0.1551432543409886</v>
       </c>
       <c r="Q20">
-        <v>309.2078160331611</v>
+        <v>1.477758215034889</v>
       </c>
       <c r="R20">
-        <v>2782.87034429845</v>
+        <v>13.299823935314</v>
       </c>
       <c r="S20">
-        <v>0.1357757633514579</v>
+        <v>0.0004969359450849732</v>
       </c>
       <c r="T20">
-        <v>0.1357757633514579</v>
+        <v>0.0004969359450849732</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,13 +1706,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>70.93018333333333</v>
+        <v>0.2857296666666667</v>
       </c>
       <c r="H21">
-        <v>212.79055</v>
+        <v>0.857189</v>
       </c>
       <c r="I21">
-        <v>0.897564265576613</v>
+        <v>0.003203078001656198</v>
       </c>
       <c r="J21">
-        <v>0.8975642655766132</v>
+        <v>0.003203078001656198</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>18.970319</v>
       </c>
       <c r="O21">
-        <v>0.2194273193638635</v>
+        <v>0.1896872885146038</v>
       </c>
       <c r="P21">
-        <v>0.2194273193638634</v>
+        <v>0.1896872885146038</v>
       </c>
       <c r="Q21">
-        <v>448.5227348539389</v>
+        <v>1.806794308143444</v>
       </c>
       <c r="R21">
-        <v>4036.70461368545</v>
+        <v>16.261148773291</v>
       </c>
       <c r="S21">
-        <v>0.1969501207522711</v>
+        <v>0.00060758318103494</v>
       </c>
       <c r="T21">
-        <v>0.196950120752271</v>
+        <v>0.00060758318103494</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,13 +1768,13 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>70.93018333333333</v>
+        <v>0.2857296666666667</v>
       </c>
       <c r="H22">
-        <v>212.79055</v>
+        <v>0.857189</v>
       </c>
       <c r="I22">
-        <v>0.897564265576613</v>
+        <v>0.003203078001656198</v>
       </c>
       <c r="J22">
-        <v>0.8975642655766132</v>
+        <v>0.003203078001656198</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.159533666666667</v>
+        <v>3.409029666666667</v>
       </c>
       <c r="N22">
-        <v>9.478601000000001</v>
+        <v>10.227089</v>
       </c>
       <c r="O22">
-        <v>0.1096377983285171</v>
+        <v>0.1022623173499366</v>
       </c>
       <c r="P22">
-        <v>0.1096377983285171</v>
+        <v>0.1022623173499366</v>
       </c>
       <c r="Q22">
-        <v>224.1063022245056</v>
+        <v>0.9740609103134444</v>
       </c>
       <c r="R22">
-        <v>2016.95672002055</v>
+        <v>8.766548192820999</v>
       </c>
       <c r="S22">
-        <v>0.09840696993617225</v>
+        <v>0.0003275541791019668</v>
       </c>
       <c r="T22">
-        <v>0.09840696993617225</v>
+        <v>0.0003275541791019668</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,13 +1830,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>70.93018333333333</v>
+        <v>0.2857296666666667</v>
       </c>
       <c r="H23">
-        <v>212.79055</v>
+        <v>0.857189</v>
       </c>
       <c r="I23">
-        <v>0.897564265576613</v>
+        <v>0.003203078001656198</v>
       </c>
       <c r="J23">
-        <v>0.8975642655766132</v>
+        <v>0.003203078001656198</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.103573333333333</v>
+        <v>1.539289666666667</v>
       </c>
       <c r="N23">
-        <v>3.31072</v>
+        <v>4.617869</v>
       </c>
       <c r="O23">
-        <v>0.03829468628146581</v>
+        <v>0.04617481916490941</v>
       </c>
       <c r="P23">
-        <v>0.0382946862814658</v>
+        <v>0.0461748191649094</v>
       </c>
       <c r="Q23">
-        <v>78.27665885511111</v>
+        <v>0.4398207233601111</v>
       </c>
       <c r="R23">
-        <v>704.489929696</v>
+        <v>3.958386510241</v>
       </c>
       <c r="S23">
-        <v>0.03437194196771066</v>
+        <v>0.0001479015474975744</v>
       </c>
       <c r="T23">
-        <v>0.03437194196771065</v>
+        <v>0.0001479015474975744</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>70.93018333333333</v>
+        <v>0.2857296666666667</v>
       </c>
       <c r="H24">
-        <v>212.79055</v>
+        <v>0.857189</v>
       </c>
       <c r="I24">
-        <v>0.897564265576613</v>
+        <v>0.003203078001656198</v>
       </c>
       <c r="J24">
-        <v>0.8975642655766132</v>
+        <v>0.003203078001656198</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.881924</v>
+        <v>12.61940066666667</v>
       </c>
       <c r="N24">
-        <v>26.645772</v>
+        <v>37.858202</v>
       </c>
       <c r="O24">
-        <v>0.3082083291451605</v>
+        <v>0.3785502861295138</v>
       </c>
       <c r="P24">
-        <v>0.3082083291451604</v>
+        <v>0.3785502861295137</v>
       </c>
       <c r="Q24">
-        <v>629.9964976727333</v>
+        <v>3.605737146019778</v>
       </c>
       <c r="R24">
-        <v>5669.9684790546</v>
+        <v>32.451634314178</v>
       </c>
       <c r="S24">
-        <v>0.276636782593771</v>
+        <v>0.001212526094022105</v>
       </c>
       <c r="T24">
-        <v>0.2766367825937709</v>
+        <v>0.001212526094022105</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,14 +1954,14 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
         <v>3</v>
       </c>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>70.93018333333333</v>
+        <v>0.2857296666666667</v>
       </c>
       <c r="H25">
-        <v>212.79055</v>
+        <v>0.857189</v>
       </c>
       <c r="I25">
-        <v>0.897564265576613</v>
+        <v>0.003203078001656198</v>
       </c>
       <c r="J25">
-        <v>0.8975642655766132</v>
+        <v>0.003203078001656198</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.990126333333333</v>
+        <v>4.273092666666666</v>
       </c>
       <c r="N25">
-        <v>14.970379</v>
+        <v>12.819278</v>
       </c>
       <c r="O25">
-        <v>0.1731605111032174</v>
+        <v>0.1281820345000479</v>
       </c>
       <c r="P25">
-        <v>0.1731605111032173</v>
+        <v>0.1281820345000479</v>
       </c>
       <c r="Q25">
-        <v>353.9505756798278</v>
+        <v>1.220949343282444</v>
       </c>
       <c r="R25">
-        <v>3185.55518111845</v>
+        <v>10.988544089542</v>
       </c>
       <c r="S25">
-        <v>0.1554226869752303</v>
+        <v>0.0004105770549146392</v>
       </c>
       <c r="T25">
-        <v>0.1554226869752302</v>
+        <v>0.0004105770549146392</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1.125222666666667</v>
+        <v>72.70661433333332</v>
       </c>
       <c r="H26">
-        <v>3.375668</v>
+        <v>218.119843</v>
       </c>
       <c r="I26">
-        <v>0.01423878536547076</v>
+        <v>0.8150534722657472</v>
       </c>
       <c r="J26">
-        <v>0.01423878536547076</v>
+        <v>0.8150534722657473</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.359326333333333</v>
+        <v>5.171875333333333</v>
       </c>
       <c r="N26">
-        <v>13.077979</v>
+        <v>15.515626</v>
       </c>
       <c r="O26">
-        <v>0.1512713557777758</v>
+        <v>0.1551432543409886</v>
       </c>
       <c r="P26">
-        <v>0.1512713557777758</v>
+        <v>0.1551432543409886</v>
       </c>
       <c r="Q26">
-        <v>4.905212801663555</v>
+        <v>376.0295452407464</v>
       </c>
       <c r="R26">
-        <v>44.146915214972</v>
+        <v>3384.265907166718</v>
       </c>
       <c r="S26">
-        <v>0.002153920366863515</v>
+        <v>0.1264500481492307</v>
       </c>
       <c r="T26">
-        <v>0.002153920366863515</v>
+        <v>0.1264500481492307</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>1.125222666666667</v>
+        <v>72.70661433333332</v>
       </c>
       <c r="H27">
-        <v>3.375668</v>
+        <v>218.119843</v>
       </c>
       <c r="I27">
-        <v>0.01423878536547076</v>
+        <v>0.8150534722657472</v>
       </c>
       <c r="J27">
-        <v>0.01423878536547076</v>
+        <v>0.8150534722657473</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>18.970319</v>
       </c>
       <c r="O27">
-        <v>0.2194273193638635</v>
+        <v>0.1896872885146038</v>
       </c>
       <c r="P27">
-        <v>0.2194273193638634</v>
+        <v>0.1896872885146038</v>
       </c>
       <c r="Q27">
-        <v>7.115277644232444</v>
+        <v>459.7558891044351</v>
       </c>
       <c r="R27">
-        <v>64.037498798092</v>
+        <v>4137.803001939917</v>
       </c>
       <c r="S27">
-        <v>0.003124378503742659</v>
+        <v>0.1546052831485024</v>
       </c>
       <c r="T27">
-        <v>0.003124378503742658</v>
+        <v>0.1546052831485025</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>1.125222666666667</v>
+        <v>72.70661433333332</v>
       </c>
       <c r="H28">
-        <v>3.375668</v>
+        <v>218.119843</v>
       </c>
       <c r="I28">
-        <v>0.01423878536547076</v>
+        <v>0.8150534722657472</v>
       </c>
       <c r="J28">
-        <v>0.01423878536547076</v>
+        <v>0.8150534722657473</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>3.159533666666667</v>
+        <v>3.409029666666667</v>
       </c>
       <c r="N28">
-        <v>9.478601000000001</v>
+        <v>10.227089</v>
       </c>
       <c r="O28">
-        <v>0.1096377983285171</v>
+        <v>0.1022623173499366</v>
       </c>
       <c r="P28">
-        <v>0.1096377983285171</v>
+        <v>0.1022623173499366</v>
       </c>
       <c r="Q28">
-        <v>3.555178897829778</v>
+        <v>247.8590052252252</v>
       </c>
       <c r="R28">
-        <v>31.99661008046801</v>
+        <v>2230.731047027027</v>
       </c>
       <c r="S28">
-        <v>0.001561109078342524</v>
+        <v>0.08334925683800756</v>
       </c>
       <c r="T28">
-        <v>0.001561109078342524</v>
+        <v>0.08334925683800756</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>1.125222666666667</v>
+        <v>72.70661433333332</v>
       </c>
       <c r="H29">
-        <v>3.375668</v>
+        <v>218.119843</v>
       </c>
       <c r="I29">
-        <v>0.01423878536547076</v>
+        <v>0.8150534722657472</v>
       </c>
       <c r="J29">
-        <v>0.01423878536547076</v>
+        <v>0.8150534722657473</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.103573333333333</v>
+        <v>1.539289666666667</v>
       </c>
       <c r="N29">
-        <v>3.31072</v>
+        <v>4.617869</v>
       </c>
       <c r="O29">
-        <v>0.03829468628146581</v>
+        <v>0.04617481916490941</v>
       </c>
       <c r="P29">
-        <v>0.0382946862814658</v>
+        <v>0.0461748191649094</v>
       </c>
       <c r="Q29">
-        <v>1.241765728995555</v>
+        <v>111.9165401416185</v>
       </c>
       <c r="R29">
-        <v>11.17589156096</v>
+        <v>1007.248861274567</v>
       </c>
       <c r="S29">
-        <v>0.0005452698185998293</v>
+        <v>0.03763494669160238</v>
       </c>
       <c r="T29">
-        <v>0.0005452698185998292</v>
+        <v>0.03763494669160238</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>1.125222666666667</v>
+        <v>72.70661433333332</v>
       </c>
       <c r="H30">
-        <v>3.375668</v>
+        <v>218.119843</v>
       </c>
       <c r="I30">
-        <v>0.01423878536547076</v>
+        <v>0.8150534722657472</v>
       </c>
       <c r="J30">
-        <v>0.01423878536547076</v>
+        <v>0.8150534722657473</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>8.881924</v>
+        <v>12.61940066666667</v>
       </c>
       <c r="N30">
-        <v>26.645772</v>
+        <v>37.858202</v>
       </c>
       <c r="O30">
-        <v>0.3082083291451605</v>
+        <v>0.3785502861295138</v>
       </c>
       <c r="P30">
-        <v>0.3082083291451604</v>
+        <v>0.3785502861295137</v>
       </c>
       <c r="Q30">
-        <v>9.994142208410667</v>
+        <v>917.5138973891427</v>
       </c>
       <c r="R30">
-        <v>89.94727987569601</v>
+        <v>8257.625076502285</v>
       </c>
       <c r="S30">
-        <v>0.004388512246548307</v>
+        <v>0.3085387251370523</v>
       </c>
       <c r="T30">
-        <v>0.004388512246548306</v>
+        <v>0.3085387251370523</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>72.70661433333332</v>
+      </c>
+      <c r="H31">
+        <v>218.119843</v>
+      </c>
+      <c r="I31">
+        <v>0.8150534722657472</v>
+      </c>
+      <c r="J31">
+        <v>0.8150534722657473</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>4.273092666666666</v>
+      </c>
+      <c r="N31">
+        <v>12.819278</v>
+      </c>
+      <c r="O31">
+        <v>0.1281820345000479</v>
+      </c>
+      <c r="P31">
+        <v>0.1281820345000479</v>
+      </c>
+      <c r="Q31">
+        <v>310.6821005259281</v>
+      </c>
+      <c r="R31">
+        <v>2796.138904733353</v>
+      </c>
+      <c r="S31">
+        <v>0.1044752123013518</v>
+      </c>
+      <c r="T31">
+        <v>0.1044752123013518</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2.625003</v>
+      </c>
+      <c r="H32">
+        <v>7.875009</v>
+      </c>
+      <c r="I32">
+        <v>0.02942672863364389</v>
+      </c>
+      <c r="J32">
+        <v>0.0294267286336439</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>5.171875333333333</v>
+      </c>
+      <c r="N32">
+        <v>15.515626</v>
+      </c>
+      <c r="O32">
+        <v>0.1551432543409886</v>
+      </c>
+      <c r="P32">
+        <v>0.1551432543409886</v>
+      </c>
+      <c r="Q32">
+        <v>13.576188265626</v>
+      </c>
+      <c r="R32">
+        <v>122.185694390634</v>
+      </c>
+      <c r="S32">
+        <v>0.004565358444832667</v>
+      </c>
+      <c r="T32">
+        <v>0.004565358444832667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2.625003</v>
+      </c>
+      <c r="H33">
+        <v>7.875009</v>
+      </c>
+      <c r="I33">
+        <v>0.02942672863364389</v>
+      </c>
+      <c r="J33">
+        <v>0.0294267286336439</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>6.323439666666666</v>
+      </c>
+      <c r="N33">
+        <v>18.970319</v>
+      </c>
+      <c r="O33">
+        <v>0.1896872885146038</v>
+      </c>
+      <c r="P33">
+        <v>0.1896872885146038</v>
+      </c>
+      <c r="Q33">
+        <v>16.599048095319</v>
+      </c>
+      <c r="R33">
+        <v>149.391432857871</v>
+      </c>
+      <c r="S33">
+        <v>0.005581876364370963</v>
+      </c>
+      <c r="T33">
+        <v>0.005581876364370964</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2.625003</v>
+      </c>
+      <c r="H34">
+        <v>7.875009</v>
+      </c>
+      <c r="I34">
+        <v>0.02942672863364389</v>
+      </c>
+      <c r="J34">
+        <v>0.0294267286336439</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>3.409029666666667</v>
+      </c>
+      <c r="N34">
+        <v>10.227089</v>
+      </c>
+      <c r="O34">
+        <v>0.1022623173499366</v>
+      </c>
+      <c r="P34">
+        <v>0.1022623173499366</v>
+      </c>
+      <c r="Q34">
+        <v>8.948713102089</v>
+      </c>
+      <c r="R34">
+        <v>80.538417918801</v>
+      </c>
+      <c r="S34">
+        <v>0.003009245462104157</v>
+      </c>
+      <c r="T34">
+        <v>0.003009245462104158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2.625003</v>
+      </c>
+      <c r="H35">
+        <v>7.875009</v>
+      </c>
+      <c r="I35">
+        <v>0.02942672863364389</v>
+      </c>
+      <c r="J35">
+        <v>0.0294267286336439</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1.539289666666667</v>
+      </c>
+      <c r="N35">
+        <v>4.617869</v>
+      </c>
+      <c r="O35">
+        <v>0.04617481916490941</v>
+      </c>
+      <c r="P35">
+        <v>0.0461748191649094</v>
+      </c>
+      <c r="Q35">
+        <v>4.040639992869</v>
+      </c>
+      <c r="R35">
+        <v>36.365759935821</v>
+      </c>
+      <c r="S35">
+        <v>0.001358773873273369</v>
+      </c>
+      <c r="T35">
+        <v>0.001358773873273369</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G31">
-        <v>1.125222666666667</v>
-      </c>
-      <c r="H31">
-        <v>3.375668</v>
-      </c>
-      <c r="I31">
-        <v>0.01423878536547076</v>
-      </c>
-      <c r="J31">
-        <v>0.01423878536547076</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>4.990126333333333</v>
-      </c>
-      <c r="N31">
-        <v>14.970379</v>
-      </c>
-      <c r="O31">
-        <v>0.1731605111032174</v>
-      </c>
-      <c r="P31">
-        <v>0.1731605111032173</v>
-      </c>
-      <c r="Q31">
-        <v>5.61500325979689</v>
-      </c>
-      <c r="R31">
-        <v>50.53502933817201</v>
-      </c>
-      <c r="S31">
-        <v>0.002465595351373929</v>
-      </c>
-      <c r="T31">
-        <v>0.002465595351373929</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2.625003</v>
+      </c>
+      <c r="H36">
+        <v>7.875009</v>
+      </c>
+      <c r="I36">
+        <v>0.02942672863364389</v>
+      </c>
+      <c r="J36">
+        <v>0.0294267286336439</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>12.61940066666667</v>
+      </c>
+      <c r="N36">
+        <v>37.858202</v>
+      </c>
+      <c r="O36">
+        <v>0.3785502861295138</v>
+      </c>
+      <c r="P36">
+        <v>0.3785502861295137</v>
+      </c>
+      <c r="Q36">
+        <v>33.125964608202</v>
+      </c>
+      <c r="R36">
+        <v>298.133681473818</v>
+      </c>
+      <c r="S36">
+        <v>0.01113949654412145</v>
+      </c>
+      <c r="T36">
+        <v>0.01113949654412145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2.625003</v>
+      </c>
+      <c r="H37">
+        <v>7.875009</v>
+      </c>
+      <c r="I37">
+        <v>0.02942672863364389</v>
+      </c>
+      <c r="J37">
+        <v>0.0294267286336439</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>4.273092666666666</v>
+      </c>
+      <c r="N37">
+        <v>12.819278</v>
+      </c>
+      <c r="O37">
+        <v>0.1281820345000479</v>
+      </c>
+      <c r="P37">
+        <v>0.1281820345000479</v>
+      </c>
+      <c r="Q37">
+        <v>11.216881069278</v>
+      </c>
+      <c r="R37">
+        <v>100.951929623502</v>
+      </c>
+      <c r="S37">
+        <v>0.003771977944941288</v>
+      </c>
+      <c r="T37">
+        <v>0.003771977944941289</v>
       </c>
     </row>
   </sheetData>
